--- a/examples/sbtab/jiang_data.xlsx
+++ b/examples/sbtab/jiang_data.xlsx
@@ -6342,43 +6342,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11964" uniqueCount="363">
   <si>
-    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.9' date='2020-04-27 01:11:14'</t>
+    <t>!!!ObjTables schema='SBtab' objTablesVersion='1.0.0' date='2020-05-29 00:25:10'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compartment' name='Compartment' date='2020-04-27 01:11:14' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compartment' name='Compartment' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compound' name='Compound' date='2020-04-27 01:11:14' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compound' name='Compound' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Definition' name='Definition' date='2020-04-27 01:11:14' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Definition' name='Definition' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Enzyme' name='Enzyme' date='2020-04-27 01:11:14' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Enzyme' name='Enzyme' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='FbcObjective' name='FbcObjective' date='2020-04-27 01:11:14' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='FbcObjective' name='FbcObjective' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Gene' name='Gene' date='2020-04-27 01:11:15' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Gene' name='Gene' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Layout' name='Layout' date='2020-04-27 01:11:15' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Layout' name='Layout' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Measurement' name='Measurement' date='2020-04-27 01:11:15' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Measurement' name='Measurement' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='PbConfig' name='PbConfig' date='2020-04-27 01:11:15' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='PbConfig' name='PbConfig' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Position' name='Position' date='2020-04-27 01:11:15' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Position' name='Position' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Protein' name='Protein' date='2020-04-27 01:11:15' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Protein' name='Protein' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Quantity' name='Quantity' date='2020-04-27 01:11:15' objTablesVersion='0.0.9' level='1.0' version='0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Quantity' name='Quantity' date='2020-05-29 00:25:10' objTablesVersion='1.0.0' level='1.0' version='0.1'</t>
   </si>
   <si>
     <t>!Reference</t>
@@ -7389,46 +7389,46 @@
     <t>C00044</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityInfo' name='QuantityInfo' date='2020-04-27 01:11:15' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityInfo' name='QuantityInfo' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityMatrix' name='QuantityMatrix' date='2020-04-27 01:11:15' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityMatrix' name='QuantityMatrix' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Reaction' name='Reaction' date='2020-04-27 01:11:15' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Reaction' name='Reaction' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-04-27 01:11:15' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Regulator' name='Regulator' date='2020-04-27 01:11:15' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Regulator' name='Regulator' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relation' name='Relation' date='2020-04-27 01:11:15' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relation' name='Relation' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relationship' name='Relationship' date='2020-04-27 01:11:15' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relationship' name='Relationship' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrix' name='SparseMatrix' date='2020-04-27 01:11:15' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrix' name='SparseMatrix' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-04-27 01:11:15' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-04-27 01:11:16' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixRow' name='SparseMatrixRow' date='2020-04-27 01:11:16' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixRow' name='SparseMatrixRow' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-04-27 01:11:16' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconContingencyList' name='rxnconContingencyList' date='2020-04-27 01:11:16' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconContingencyList' name='rxnconContingencyList' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconReactionList' name='rxnconReactionList' date='2020-04-27 01:11:16' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconReactionList' name='rxnconReactionList' date='2020-05-29 00:25:10' objTablesVersion='1.0.0'</t>
   </si>
 </sst>
 </file>
